--- a/XLS_Kuka/Kuka_COMUNICATION.xlsx
+++ b/XLS_Kuka/Kuka_COMUNICATION.xlsx
@@ -814,8 +814,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XLS_Kuka/Kuka_COMUNICATION.xlsx
+++ b/XLS_Kuka/Kuka_COMUNICATION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3090" windowWidth="22905" windowHeight="6765"/>
+    <workbookView xWindow="-3030" yWindow="1710" windowWidth="22905" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Kuka" sheetId="1" r:id="rId1"/>
@@ -219,25 +219,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -247,7 +245,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -267,23 +265,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -303,13 +301,25 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -320,15 +330,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -397,14 +405,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84FA678658C2DB849BF8ACFF82FCBB104453D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7AC1DA99573A93749A0781CD7C1888315FF967"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="10954"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -414,14 +422,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7AC1DA99573A93749A0781CD7C1888315FF967"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84FA678658C2DB849BF8ACFF82FCBB104453D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="12409"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1349"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -474,15 +482,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>9526</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1809750</xdr:colOff>
+          <xdr:colOff>2028825</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -514,11 +522,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="B4:C25" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B4:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="B4:C28" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B4:C28"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Var name" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="Value" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="3" name="Value" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,7 +823,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,28 +831,42 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="13"/>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -857,7 +879,7 @@
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -875,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -891,7 +913,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -901,7 +923,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -913,7 +935,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
@@ -925,7 +947,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -937,7 +959,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="6"/>
@@ -950,7 +972,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="6"/>
@@ -962,79 +984,100 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="14"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="14"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="14"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="14"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="14"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -1081,6 +1124,9 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1089,33 +1135,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId5" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1809750</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId5" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId7" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId8">
+        <control shapeId="1031" r:id="rId5" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1134,7 +1155,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId7" name="_ActiveXWrapper1"/>
+        <control shapeId="1031" r:id="rId5" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId7" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>2028825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId7" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/XLS_Kuka/Kuka_COMUNICATION.xlsx
+++ b/XLS_Kuka/Kuka_COMUNICATION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-3030" yWindow="1710" windowWidth="22905" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="3450" windowWidth="17415" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Kuka" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -293,6 +293,23 @@
     <cellStyle name="Titolo 1" xfId="5" builtinId="16"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -320,23 +337,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -405,14 +405,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7AC1DA99573A93749A0781CD7C1888315FF967"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84FA678658C2DB849BF8ACFF82FCBB104453D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="12409"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1349"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -422,14 +422,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84FA678658C2DB849BF8ACFF82FCBB104453D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7AC1DA99573A93749A0781CD7C1888315FF967"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="12409"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -482,7 +482,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9526</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
@@ -526,7 +526,7 @@
   <autoFilter ref="B4:C28"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Var name" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="Value" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Value" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,7 +823,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,34 +839,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1135,8 +1135,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId6">
+        <control shapeId="1032" r:id="rId5" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>2028825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId5" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId7" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1155,32 +1180,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId7" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>2028825</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId7" name="_ActiveXWrapper2"/>
+        <control shapeId="1031" r:id="rId7" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
